--- a/数据整理/stocks/港股/00857-中国石油股份.xlsx
+++ b/数据整理/stocks/港股/00857-中国石油股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>82.77</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.80</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>82.77</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.80</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004316</t>
+          <t>010761</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+          <t>华商甄选回报混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.36</t>
+          <t>55.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6524</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -622,25 +672,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004317</t>
+          <t>004316</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>90.36</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.04</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010761</t>
+          <t>004317</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商甄选回报混合</t>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>74.57</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00857-中国石油股份.xlsx
+++ b/数据整理/stocks/港股/00857-中国石油股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1872</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>37.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>37.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00857-中国石油股份.xlsx
+++ b/数据整理/stocks/港股/00857-中国石油股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1144,4 +1145,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2718</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161620</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00857-中国石油股份.xlsx
+++ b/数据整理/stocks/港股/00857-中国石油股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1581,4 +1582,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00857-中国石油股份.xlsx
+++ b/数据整理/stocks/港股/00857-中国石油股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1590,7 +1591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,17 +1602,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1621,14 +1642,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>011913</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>27.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.54</v>
       </c>
     </row>
     <row r="3">
@@ -1637,14 +1680,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.4</v>
+          <t>011914</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1653,14 +1718,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.68</v>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1669,13 +1756,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00857-中国石油股份.xlsx
+++ b/数据整理/stocks/港股/00857-中国石油股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1799,7 +1800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1810,17 +1811,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1830,14 +1851,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2</v>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1846,14 +1889,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.54</v>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1862,14 +1927,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.4</v>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1878,14 +1965,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.68</v>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1894,13 +2003,395 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001824</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时沪港深成长企业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00857-中国石油股份.xlsx
+++ b/数据整理/stocks/港股/00857-中国石油股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2274,7 +2275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2285,17 +2286,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2305,14 +2326,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.36</v>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2321,14 +2364,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.2</v>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2337,14 +2402,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.54</v>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2353,14 +2440,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.4</v>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2369,14 +2478,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.68</v>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2385,13 +2516,183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00857-中国石油股份.xlsx
+++ b/数据整理/stocks/港股/00857-中国石油股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.15</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.36</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.54</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>2.4</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>1.68</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -600,6 +617,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4023</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3423</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015779</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161620</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>57.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014127</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>57.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -883,7 +1412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1357,7 +1886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1565,7 +2094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2001,7 +2530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2399,7 +2928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2569,7 +3098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00857-中国石油股份.xlsx
+++ b/数据整理/stocks/港股/00857-中国石油股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>1.02</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.15</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.36</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.54</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>2.4</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>1.68</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -616,7 +633,765 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0833</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9217</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008715</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城价值驱动一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4185</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4147</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3660</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3026</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015779</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1128,7 +1903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1412,7 +2187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1886,7 +2661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2094,7 +2869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2530,7 +3305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2928,7 +3703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3096,136 +3871,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004316</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>82.77</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004317</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>82.77</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0087</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>